--- a/DosingCalculations.xlsx
+++ b/DosingCalculations.xlsx
@@ -9,11 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="curr_time">Sheet2!$I$2</definedName>
+    <definedName name="DAILY_DOSES_END_HOUR">Sheet2!$O$2</definedName>
+    <definedName name="DAILY_DOSES_MIN_DELAY">Sheet2!$P$2</definedName>
+    <definedName name="DAILY_DOSES_START_HOUR">Sheet2!$N$2</definedName>
+    <definedName name="Pump_delay">Sheet2!$R$2</definedName>
+    <definedName name="pump_delay_a">Sheet2!$R$2</definedName>
+    <definedName name="pump_delay_b">Sheet2!$S$2</definedName>
+    <definedName name="pump_delay_c">Sheet2!$T$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>ml</t>
   </si>
@@ -48,6 +59,93 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>DailyDoseDelay = max(DAILY_DOSES_MIN_DELAY, ((DailyDosesNo/(DAILY_DOSES_END_HOUR - max(DAILY_DOSES_START_HOUR, CurrentTime-&gt;Hour)))))</t>
+  </si>
+  <si>
+    <t>DAILY_DOSES_MIN_DELAY</t>
+  </si>
+  <si>
+    <t>DAILY_DOSES_END_HOUR</t>
+  </si>
+  <si>
+    <t>DAILY_DOSES_START_HOUR</t>
+  </si>
+  <si>
+    <t>Last Dosing Time</t>
+  </si>
+  <si>
+    <t>Next Dosing Time</t>
+  </si>
+  <si>
+    <t>pump1</t>
+  </si>
+  <si>
+    <t>pump2</t>
+  </si>
+  <si>
+    <t>pump3</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>dose delay</t>
+  </si>
+  <si>
+    <t>curr_time</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>pump_delay_a</t>
+  </si>
+  <si>
+    <t>pump_delay_b</t>
+  </si>
+  <si>
+    <t>pump_delay_c</t>
+  </si>
+  <si>
+    <t>advance day</t>
   </si>
 </sst>
 </file>
@@ -55,7 +153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -87,10 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +547,10 @@
       <c r="I2" s="1">
         <v>0.29166666666666669</v>
       </c>
+      <c r="J2" s="1">
+        <f>TIME(HOUR(H2)+ROUND($F7/1,0),MINUTE(H2)+ROUND(60*MOD($F7,1),0),0)</f>
+        <v>6.0416666666666667E-2</v>
+      </c>
       <c r="K2" s="1">
         <f>TIME(HOUR(I2)+ROUND($F7/1,0),MINUTE(I2)+ROUND(60*MOD($F7,1),0),0)</f>
         <v>0.3520833333333333</v>
@@ -477,7 +585,7 @@
       </c>
       <c r="V2" s="2">
         <f>COUNT(I2:U2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -486,51 +594,51 @@
       </c>
       <c r="J3" s="1">
         <f>TIME(HOUR(I3)+ROUND($F8/1,0),MINUTE(I3)+ROUND(60*MOD($F8,1),0)+IF((HOUR(I3)+ROUND($F8/1,0))&gt;HOUR(J2),IF(MINUTE(J2)+$E$4&lt;60,0,(MINUTE(H3)+ROUND(60*MOD($F8,1),0))+$E$4+MINUTE(J2)-60),MINUTE(J2)+$E$4),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="K3" s="1">
         <f>TIME(HOUR(J3)+ROUND($F8/1,0),MINUTE(J3)+ROUND(60*MOD($F8,1),0)+IF((HOUR(J3)+ROUND($F8/1,0))&gt;HOUR(K2),IF(MINUTE(K2)+$E$4&lt;60,0,(MINUTE(I3)+ROUND(60*MOD($F8,1),0))+$E$4+MINUTE(K2)-60),MINUTE(K2)+$E$4),0)</f>
-        <v>0.375</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="J3:U4" si="0">TIME(HOUR(K3)+ROUND($F8/1,0),MINUTE(K3)+ROUND(60*MOD($F8,1),0),0)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" ref="L3:U4" si="0">TIME(HOUR(K3)+ROUND($F8/1,0),MINUTE(K3)+ROUND(60*MOD($F8,1),0),0)</f>
+        <v>0.4291666666666667</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0.47500000000000003</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.70416666666666661</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.79583333333333339</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
+        <v>0.84166666666666667</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ref="V3:V4" si="1">COUNT(I3:U3)</f>
@@ -548,52 +656,52 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="I4:U4" si="2">TIME(HOUR(I4)+ROUND($F9/1,0),MINUTE(I4)+ROUND(60*MOD($F9,1),0)+IF((HOUR(I4)+ROUND($F9/1,0))&gt;HOUR(J3),IF(MINUTE(J3)+$E$4&lt;60,0,(MINUTE(H4)+ROUND(60*MOD($F9,1),0))+$E$4+MINUTE(J3)-60),MINUTE(J3)+$E$4),0)</f>
-        <v>0.34375</v>
+        <f t="shared" ref="J4:K4" si="2">TIME(HOUR(I4)+ROUND($F9/1,0),MINUTE(I4)+ROUND(60*MOD($F9,1),0)+IF((HOUR(I4)+ROUND($F9/1,0))&gt;HOUR(J3),IF(MINUTE(J3)+$E$4&lt;60,0,(MINUTE(H4)+ROUND(60*MOD($F9,1),0))+$E$4+MINUTE(J3)-60),MINUTE(J3)+$E$4),0)</f>
+        <v>0.34791666666666665</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
-        <v>0.39583333333333331</v>
+        <v>0.40833333333333338</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>0.47916666666666669</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>0.52083333333333337</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>0.72916666666666663</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.82500000000000007</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="1"/>
@@ -625,13 +733,17 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
+      <c r="J6" s="2">
+        <f>IF((HOUR(I3)+ROUND($F8,0))&gt;HOUR(J2),IF(MINUTE(J2)+$E$4&lt;60,0,(MINUTE(I3)+ROUND(60*MOD($F8,1),0))+$E$4+MINUTE(J2)-60),MINUTE(J2)+$E$4)</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="2">
-        <f>IF((HOUR(J3)+ROUND($F8/1,0))&gt;HOUR(K2),IF(MINUTE(K2)+$E$4&lt;60,0,(MINUTE(I3)+ROUND(60*MOD($F8,1),0))+$E$4+MINUTE(K2)-60),MINUTE(K2)+$E$4)</f>
+        <f t="shared" ref="K6:U7" si="3">IF((HOUR(J3)+ROUND($F8,0))&gt;HOUR(K2),IF(MINUTE(K2)+$E$4&lt;60,0,(MINUTE(J3)+ROUND(60*MOD($F8,1),0))+$E$4+MINUTE(K2)-60),MINUTE(K2)+$E$4)</f>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L6:U6" si="3">IF((HOUR(K3)+ROUND($F8/1,0))&gt;HOUR(L2),IF(MINUTE(L2)+$E$4&lt;60,0,(MINUTE(J3)+ROUND(60*MOD($F8,1),0))+$E$4+MINUTE(L2)-60),MINUTE(L2)+$E$4)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
@@ -643,7 +755,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="3"/>
@@ -687,56 +799,60 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>A7/D7</f>
+        <f t="shared" ref="E7:F9" si="4">A7/D7</f>
         <v>9</v>
       </c>
       <c r="F7">
         <f>B7/E7</f>
         <v>1.4444444444444444</v>
       </c>
+      <c r="J7" s="2">
+        <f>IF((HOUR(I4)+ROUND($F9,0))&gt;HOUR(J3),IF(MINUTE(J3)+$E$4&lt;60,0,(MINUTE(I4)+ROUND(60*MOD($F9,1),0))+$E$4+MINUTE(J3)-60),MINUTE(J3)+$E$4)</f>
+        <v>21</v>
+      </c>
       <c r="K7" s="2">
-        <f>IF((HOUR(J4)+ROUND($F9/1,0))&gt;HOUR(K3),IF(MINUTE(K3)+$E$4&lt;60,0,(MINUTE(I4)+ROUND(60*MOD($F9,1),0))+$E$4+MINUTE(K3)-60),MINUTE(K3)+$E$4)</f>
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7:U7" si="4">IF((HOUR(K4)+ROUND($F9/1,0))&gt;HOUR(L3),IF(MINUTE(L3)+$E$4&lt;60,0,(MINUTE(J4)+ROUND(60*MOD($F9,1),0))+$E$4+MINUTE(L3)-60),MINUTE(L3)+$E$4)</f>
-        <v>15</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
       <c r="T7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -756,12 +872,11 @@
         <v>8.615384615384615</v>
       </c>
       <c r="E8">
-        <f>A8/D8</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F8">
-        <f>B8/E8</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -781,11 +896,11 @@
         <v>12.307692307692308</v>
       </c>
       <c r="E9">
-        <f>A9/D9</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F9">
-        <f>B9/E9</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -825,19 +940,373 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>F16+60</f>
+        <v>87</v>
+      </c>
       <c r="H17">
         <f>60*MOD(H14,I14)</f>
         <v>36.000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H19" s="1">
         <f>TIME(H16,H17,0)</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>MAX(D23,ROUND((((D22-MAX(D21,9))/E7)*60),0))</f>
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <f>(13/9)*60</f>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f>ROUNDDOWN(C28/60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>MOD(C28,60)</f>
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <f ca="1">NOW()</f>
+        <v>41915.6161474537</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <f ca="1">MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K2)*60),0))</f>
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f ca="1">TIME(MAX(HOUR(curr_time), DAILY_DOSES_START_HOUR),IF((HOUR(curr_time) &gt;= DAILY_DOSES_START_HOUR),MINUTE(curr_time) + 1,pump_delay_a),0)</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">TIME(HOUR(E3),MINUTE(E3) + pump_delay_b,0)</f>
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="G3" s="1">
+        <f ca="1">TIME(HOUR(F3),MINUTE(F3) + pump_delay_b,0)</f>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <f ca="1">MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K3)*60),0))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <f ca="1">E3</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="C4" s="1">
+        <f ca="1">F3</f>
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">G3</f>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <f ca="1">MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K4)*60),0))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DosingCalculations.xlsx
+++ b/DosingCalculations.xlsx
@@ -20,6 +20,9 @@
     <definedName name="DAILY_DOSES_END_HOUR">Sheet2!$O$2</definedName>
     <definedName name="DAILY_DOSES_MIN_DELAY">Sheet2!$P$2</definedName>
     <definedName name="DAILY_DOSES_START_HOUR">Sheet2!$N$2</definedName>
+    <definedName name="dose_del_a">Sheet2!$L$2</definedName>
+    <definedName name="dose_del_b">Sheet2!$L$3</definedName>
+    <definedName name="dose_del_c">Sheet2!$L$4</definedName>
     <definedName name="Pump_delay">Sheet2!$R$2</definedName>
     <definedName name="pump_delay_a">Sheet2!$R$2</definedName>
     <definedName name="pump_delay_b">Sheet2!$S$2</definedName>
@@ -1015,14 +1018,16 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="2" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
@@ -1090,14 +1095,14 @@
         <v>16</v>
       </c>
       <c r="I2" s="1">
-        <f ca="1">NOW()</f>
-        <v>41915.6161474537</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <f>DAILY_DOSES_END_HOUR-MAX(HOUR(curr_time),DAILY_DOSES_START_HOUR)</f>
+        <v>13</v>
       </c>
       <c r="L2">
-        <f ca="1">MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K2)*60),0))</f>
+        <f>MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K2)*60),0))</f>
         <v>60</v>
       </c>
       <c r="N2">
@@ -1110,7 +1115,7 @@
         <v>60</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S2">
         <v>15</v>
@@ -1127,25 +1132,26 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f ca="1">TIME(MAX(HOUR(curr_time), DAILY_DOSES_START_HOUR),IF((HOUR(curr_time) &gt;= DAILY_DOSES_START_HOUR),MINUTE(curr_time) + 1,pump_delay_a),0)</f>
-        <v>0.6166666666666667</v>
+        <f>TIME(MAX(HOUR(curr_time), DAILY_DOSES_START_HOUR),IF((HOUR(curr_time) &gt;= DAILY_DOSES_START_HOUR),MINUTE(curr_time) + 1,pump_delay_a),0)</f>
+        <v>0.29236111111111113</v>
       </c>
       <c r="F3" s="1">
-        <f ca="1">TIME(HOUR(E3),MINUTE(E3) + pump_delay_b,0)</f>
-        <v>0.62708333333333333</v>
+        <f>TIME(HOUR(E3),MINUTE(E3) + pump_delay_b,0)</f>
+        <v>0.30277777777777776</v>
       </c>
       <c r="G3" s="1">
-        <f ca="1">TIME(HOUR(F3),MINUTE(F3) + pump_delay_b,0)</f>
-        <v>0.63750000000000007</v>
+        <f>TIME(HOUR(F3),MINUTE(F3) + pump_delay_b,0)</f>
+        <v>0.31319444444444444</v>
       </c>
       <c r="H3" t="s">
         <v>36</v>
       </c>
       <c r="K3">
+        <f>DAILY_DOSES_END_HOUR-MAX(HOUR(curr_time),DAILY_DOSES_START_HOUR)</f>
         <v>13</v>
       </c>
       <c r="L3">
-        <f ca="1">MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K3)*60),0))</f>
+        <f>MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K3)*60),0))</f>
         <v>60</v>
       </c>
     </row>
@@ -1154,25 +1160,35 @@
         <v>18</v>
       </c>
       <c r="B4" s="1">
-        <f ca="1">E3</f>
-        <v>0.6166666666666667</v>
+        <f>IF(E3&lt;=F3,E3,B3)</f>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">F3</f>
-        <v>0.62708333333333333</v>
+        <f>F3</f>
+        <v>0.30277777777777776</v>
       </c>
       <c r="D4" s="1">
-        <f ca="1">G3</f>
-        <v>0.63750000000000007</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <f>G3</f>
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="E4" s="1">
+        <f>TIME(HOUR(B4),MINUTE(B4)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B4),MINUTE(B4)+dose_del_a,0))&gt;HOUR(G3),60-MINUTE(G3)+MINUTE(TIME(HOUR(B4),MINUTE(B4)+dose_del_a,0)),MINUTE(TIME(HOUR(B4),MINUTE(B4)+dose_del_a,0))-MINUTE(G3)),0),0)</f>
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="F4" s="1">
+        <f>TIME(HOUR(C4),MINUTE(C4)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0))&gt;HOUR(E4),60-MINUTE(E4)+MINUTE(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0)),MINUTE(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0))-MINUTE(E4)),0),0)</f>
+        <v>0.34444444444444439</v>
+      </c>
+      <c r="G4" s="1">
+        <f>TIME(HOUR(D4),MINUTE(D4)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0))&gt;HOUR(F4),60-MINUTE(F4)+MINUTE(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0)),MINUTE(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0))-MINUTE(F4)),0),0)</f>
+        <v>0.35486111111111107</v>
+      </c>
       <c r="K4">
+        <f>DAILY_DOSES_END_HOUR-MAX(HOUR(curr_time),DAILY_DOSES_START_HOUR)</f>
         <v>13</v>
       </c>
       <c r="L4">
-        <f ca="1">MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K4)*60),0))</f>
+        <f>MAX(DAILY_DOSES_MIN_DELAY,ROUND((((DAILY_DOSES_END_HOUR-MAX(DAILY_DOSES_START_HOUR,HOUR(curr_time)))/K4)*60),0))</f>
         <v>60</v>
       </c>
     </row>
@@ -1181,126 +1197,313 @@
         <v>19</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <f>F4</f>
+        <v>0.34444444444444439</v>
+      </c>
+      <c r="D5" s="1">
+        <f>G4</f>
+        <v>0.35486111111111107</v>
+      </c>
+      <c r="F5" s="1">
+        <f>TIME(HOUR(C5),MINUTE(C5)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C5),MINUTE(C5)+dose_del_b,0))&gt;HOUR(E5),60-MINUTE(E5)+MINUTE(TIME(HOUR(C5),MINUTE(C5)+dose_del_b,0)),MINUTE(TIME(HOUR(C5),MINUTE(C5)+dose_del_b,0))-MINUTE(E5)),0),0)</f>
+        <v>0.38611111111111107</v>
+      </c>
+      <c r="G5" s="1">
+        <f>TIME(HOUR(D5),MINUTE(D5)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D5),MINUTE(D5)+dose_del_c,0))&gt;HOUR(F5),60-MINUTE(F5)+MINUTE(TIME(HOUR(D5),MINUTE(D5)+dose_del_c,0)),MINUTE(TIME(HOUR(D5),MINUTE(D5)+dose_del_c,0))-MINUTE(F5)),0),0)</f>
+        <v>0.39652777777777776</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <f>IF(E5&gt;0,E5,E4)</f>
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="C6" s="1">
+        <f>F5</f>
+        <v>0.38611111111111107</v>
+      </c>
+      <c r="D6" s="1">
+        <f>G5</f>
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="E6" s="1">
+        <f>TIME(HOUR(B6),MINUTE(B6)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B6),MINUTE(B6)+dose_del_a,0))&gt;HOUR(G5),60-MINUTE(G5)+MINUTE(TIME(HOUR(B6),MINUTE(B6)+dose_del_a,0)),MINUTE(TIME(HOUR(B6),MINUTE(B6)+dose_del_a,0))-MINUTE(G5)),0),0)</f>
+        <v>0.40694444444444439</v>
+      </c>
+      <c r="F6" s="1">
+        <f>TIME(HOUR(C6),MINUTE(C6)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C6),MINUTE(C6)+dose_del_b,0))&gt;HOUR(E6),60-MINUTE(E6)+MINUTE(TIME(HOUR(C6),MINUTE(C6)+dose_del_b,0)),MINUTE(TIME(HOUR(C6),MINUTE(C6)+dose_del_b,0))-MINUTE(E6)),0),0)</f>
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="G6" s="1">
+        <f>TIME(HOUR(D6),MINUTE(D6)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D6),MINUTE(D6)+dose_del_c,0))&gt;HOUR(F6),60-MINUTE(F6)+MINUTE(TIME(HOUR(D6),MINUTE(D6)+dose_del_c,0)),MINUTE(TIME(HOUR(D6),MINUTE(D6)+dose_del_c,0))-MINUTE(F6)),0),0)</f>
+        <v>0.43819444444444439</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B15" si="0">IF(E6&gt;0,E6,E5)</f>
+        <v>0.40694444444444439</v>
+      </c>
+      <c r="C7" s="1">
+        <f>F6</f>
+        <v>0.42777777777777776</v>
+      </c>
+      <c r="D7" s="1">
+        <f>G6</f>
+        <v>0.43819444444444439</v>
+      </c>
+      <c r="E7" s="1">
+        <f>TIME(HOUR(B7),MINUTE(B7)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B7),MINUTE(B7)+dose_del_a,0))&gt;HOUR(G6),60-MINUTE(G6)+MINUTE(TIME(HOUR(B7),MINUTE(B7)+dose_del_a,0)),MINUTE(TIME(HOUR(B7),MINUTE(B7)+dose_del_a,0))-MINUTE(G6)),0),0)</f>
+        <v>0.44861111111111107</v>
+      </c>
+      <c r="F7" s="1">
+        <f>TIME(HOUR(C7),MINUTE(C7)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C7),MINUTE(C7)+dose_del_b,0))&gt;HOUR(E7),60-MINUTE(E7)+MINUTE(TIME(HOUR(C7),MINUTE(C7)+dose_del_b,0)),MINUTE(TIME(HOUR(C7),MINUTE(C7)+dose_del_b,0))-MINUTE(E7)),0),0)</f>
+        <v>0.46944444444444439</v>
+      </c>
+      <c r="G7" s="1">
+        <f>TIME(HOUR(D7),MINUTE(D7)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D7),MINUTE(D7)+dose_del_c,0))&gt;HOUR(F7),60-MINUTE(F7)+MINUTE(TIME(HOUR(D7),MINUTE(D7)+dose_del_c,0)),MINUTE(TIME(HOUR(D7),MINUTE(D7)+dose_del_c,0))-MINUTE(F7)),0),0)</f>
+        <v>0.47986111111111107</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44861111111111107</v>
+      </c>
+      <c r="C8" s="1">
+        <f>F7</f>
+        <v>0.46944444444444439</v>
+      </c>
+      <c r="D8" s="1">
+        <f>G7</f>
+        <v>0.47986111111111107</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <f>TIME(HOUR(C8),MINUTE(C8)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C8),MINUTE(C8)+dose_del_b,0))&gt;HOUR(E8),60-MINUTE(E8)+MINUTE(TIME(HOUR(C8),MINUTE(C8)+dose_del_b,0)),MINUTE(TIME(HOUR(C8),MINUTE(C8)+dose_del_b,0))-MINUTE(E8)),0),0)</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="G8" s="1">
+        <f>TIME(HOUR(D8),MINUTE(D8)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D8),MINUTE(D8)+dose_del_c,0))&gt;HOUR(F8),60-MINUTE(F8)+MINUTE(TIME(HOUR(D8),MINUTE(D8)+dose_del_c,0)),MINUTE(TIME(HOUR(D8),MINUTE(D8)+dose_del_c,0))-MINUTE(F8)),0),0)</f>
+        <v>0.5215277777777777</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44861111111111107</v>
+      </c>
+      <c r="C9" s="1">
+        <f>F8</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="D9" s="1">
+        <f>G8</f>
+        <v>0.5215277777777777</v>
+      </c>
+      <c r="E9" s="1">
+        <f>TIME(HOUR(B9),MINUTE(B9)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B9),MINUTE(B9)+dose_del_a,0))&gt;HOUR(G8),60-MINUTE(G8)+MINUTE(TIME(HOUR(B9),MINUTE(B9)+dose_del_a,0)),MINUTE(TIME(HOUR(B9),MINUTE(B9)+dose_del_a,0))-MINUTE(G8)),0),0)</f>
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="F9" s="1">
+        <f>TIME(HOUR(C9),MINUTE(C9)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C9),MINUTE(C9)+dose_del_b,0))&gt;HOUR(E9),60-MINUTE(E9)+MINUTE(TIME(HOUR(C9),MINUTE(C9)+dose_del_b,0)),MINUTE(TIME(HOUR(C9),MINUTE(C9)+dose_del_b,0))-MINUTE(E9)),0),0)</f>
+        <v>0.5527777777777777</v>
+      </c>
+      <c r="G9" s="1">
+        <f>TIME(HOUR(D9),MINUTE(D9)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0))&gt;HOUR(F9),60-MINUTE(F9)+MINUTE(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0)),MINUTE(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0))-MINUTE(F9)),0),0)</f>
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="H9" s="2">
+        <f>MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0))&gt;HOUR(F9),60-MINUTE(F9)+MINUTE(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0)),MINUTE(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0))-MINUTE(F9)),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="C10" s="1">
+        <f>F9</f>
+        <v>0.5527777777777777</v>
+      </c>
+      <c r="D10" s="1">
+        <f>G9</f>
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="E10" s="1">
+        <f>TIME(HOUR(B10),MINUTE(B10)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B10),MINUTE(B10)+dose_del_a,0))&gt;HOUR(G9),60-MINUTE(G9)+MINUTE(TIME(HOUR(B10),MINUTE(B10)+dose_del_a,0)),MINUTE(TIME(HOUR(B10),MINUTE(B10)+dose_del_a,0))-MINUTE(G9)),0),0)</f>
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="F10" s="1">
+        <f>TIME(HOUR(C10),MINUTE(C10)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C10),MINUTE(C10)+dose_del_b,0))&gt;HOUR(E10),60-MINUTE(E10)+MINUTE(TIME(HOUR(C10),MINUTE(C10)+dose_del_b,0)),MINUTE(TIME(HOUR(C10),MINUTE(C10)+dose_del_b,0))-MINUTE(E10)),0),0)</f>
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="G10" s="1">
+        <f>TIME(HOUR(D10),MINUTE(D10)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D10),MINUTE(D10)+dose_del_c,0))&gt;HOUR(F10),60-MINUTE(F10)+MINUTE(TIME(HOUR(D10),MINUTE(D10)+dose_del_c,0)),MINUTE(TIME(HOUR(D10),MINUTE(D10)+dose_del_c,0))-MINUTE(F10)),0),0)</f>
+        <v>0.60486111111111107</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="C11" s="1">
+        <f>F10</f>
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="D11" s="1">
+        <f>G10</f>
+        <v>0.60486111111111107</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <f>TIME(HOUR(C11),MINUTE(C11)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C11),MINUTE(C11)+dose_del_b,0))&gt;HOUR(E11),60-MINUTE(E11)+MINUTE(TIME(HOUR(C11),MINUTE(C11)+dose_del_b,0)),MINUTE(TIME(HOUR(C11),MINUTE(C11)+dose_del_b,0))-MINUTE(E11)),0),0)</f>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="G11" s="1">
+        <f>TIME(HOUR(D11),MINUTE(D11)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D11),MINUTE(D11)+dose_del_c,0))&gt;HOUR(F11),60-MINUTE(F11)+MINUTE(TIME(HOUR(D11),MINUTE(D11)+dose_del_c,0)),MINUTE(TIME(HOUR(D11),MINUTE(D11)+dose_del_c,0))-MINUTE(F11)),0),0)</f>
+        <v>0.6465277777777777</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="C12" s="1">
+        <f>F11</f>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="D12" s="1">
+        <f>G11</f>
+        <v>0.6465277777777777</v>
+      </c>
+      <c r="E12" s="1">
+        <f>TIME(HOUR(B12),MINUTE(B12)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B12),MINUTE(B12)+dose_del_a,0))&gt;HOUR(G11),60-MINUTE(G11)+MINUTE(TIME(HOUR(B12),MINUTE(B12)+dose_del_a,0)),MINUTE(TIME(HOUR(B12),MINUTE(B12)+dose_del_a,0))-MINUTE(G11)),0),0)</f>
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="F12" s="1">
+        <f>TIME(HOUR(C12),MINUTE(C12)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C12),MINUTE(C12)+dose_del_b,0))&gt;HOUR(E12),60-MINUTE(E12)+MINUTE(TIME(HOUR(C12),MINUTE(C12)+dose_del_b,0)),MINUTE(TIME(HOUR(C12),MINUTE(C12)+dose_del_b,0))-MINUTE(E12)),0),0)</f>
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="G12" s="1">
+        <f>TIME(HOUR(D12),MINUTE(D12)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D12),MINUTE(D12)+dose_del_c,0))&gt;HOUR(F12),60-MINUTE(F12)+MINUTE(TIME(HOUR(D12),MINUTE(D12)+dose_del_c,0)),MINUTE(TIME(HOUR(D12),MINUTE(D12)+dose_del_c,0))-MINUTE(F12)),0),0)</f>
+        <v>0.68819444444444444</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:C14" si="1">F12</f>
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D14" si="2">G12</f>
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="E13" s="1">
+        <f>TIME(HOUR(B13),MINUTE(B13)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B13),MINUTE(B13)+dose_del_a,0))&gt;HOUR(G12),60-MINUTE(G12)+MINUTE(TIME(HOUR(B13),MINUTE(B13)+dose_del_a,0)),MINUTE(TIME(HOUR(B13),MINUTE(B13)+dose_del_a,0))-MINUTE(G12)),0),0)</f>
+        <v>0.6152777777777777</v>
+      </c>
+      <c r="F13" s="1">
+        <f>TIME(HOUR(C13),MINUTE(C13)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C13),MINUTE(C13)+dose_del_b,0))&gt;HOUR(E13),60-MINUTE(E13)+MINUTE(TIME(HOUR(C13),MINUTE(C13)+dose_del_b,0)),MINUTE(TIME(HOUR(C13),MINUTE(C13)+dose_del_b,0))-MINUTE(E13)),0),0)</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="G13" s="1">
+        <f>TIME(HOUR(D13),MINUTE(D13)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D13),MINUTE(D13)+dose_del_c,0))&gt;HOUR(F13),60-MINUTE(F13)+MINUTE(TIME(HOUR(D13),MINUTE(D13)+dose_del_c,0)),MINUTE(TIME(HOUR(D13),MINUTE(D13)+dose_del_c,0))-MINUTE(F13)),0),0)</f>
+        <v>0.72986111111111107</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6152777777777777</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72986111111111107</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <f>TIME(HOUR(C14),MINUTE(C14)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C14),MINUTE(C14)+dose_del_b,0))&gt;HOUR(E14),60-MINUTE(E14)+MINUTE(TIME(HOUR(C14),MINUTE(C14)+dose_del_b,0)),MINUTE(TIME(HOUR(C14),MINUTE(C14)+dose_del_b,0))-MINUTE(E14)),0),0)</f>
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G14" s="1">
+        <f>TIME(HOUR(D14),MINUTE(D14)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D14),MINUTE(D14)+dose_del_c,0))&gt;HOUR(F14),60-MINUTE(F14)+MINUTE(TIME(HOUR(D14),MINUTE(D14)+dose_del_c,0)),MINUTE(TIME(HOUR(D14),MINUTE(D14)+dose_del_c,0))-MINUTE(F14)),0),0)</f>
+        <v>0.7715277777777777</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6152777777777777</v>
+      </c>
+      <c r="C15" s="1">
+        <f>F14</f>
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="D15" s="1">
+        <f>G14</f>
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="E15" s="1">
+        <f>TIME(HOUR(B15),MINUTE(B15)+dose_del_a+MAX(pump_delay_a-IF(HOUR(TIME(HOUR(B15),MINUTE(B15)+dose_del_a,0))&gt;HOUR(G14),60-MINUTE(G14)+MINUTE(TIME(HOUR(B15),MINUTE(B15)+dose_del_a,0)),MINUTE(TIME(HOUR(B15),MINUTE(B15)+dose_del_a,0))-MINUTE(G14)),0),0)</f>
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="F15" s="1">
+        <f>TIME(HOUR(C15),MINUTE(C15)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C15),MINUTE(C15)+dose_del_b,0))&gt;HOUR(E15),60-MINUTE(E15)+MINUTE(TIME(HOUR(C15),MINUTE(C15)+dose_del_b,0)),MINUTE(TIME(HOUR(C15),MINUTE(C15)+dose_del_b,0))-MINUTE(E15)),0),0)</f>
+        <v>0.8027777777777777</v>
+      </c>
+      <c r="G15" s="1">
+        <f>TIME(HOUR(D15),MINUTE(D15)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D15),MINUTE(D15)+dose_del_c,0))&gt;HOUR(F15),60-MINUTE(F15)+MINUTE(TIME(HOUR(D15),MINUTE(D15)+dose_del_c,0)),MINUTE(TIME(HOUR(D15),MINUTE(D15)+dose_del_c,0))-MINUTE(F15)),0),0)</f>
+        <v>0.81319444444444444</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DosingCalculations.xlsx
+++ b/DosingCalculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>ml</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>advance day</t>
+  </si>
+  <si>
+    <t>max(minimaldosage;(dailydose/20-7))</t>
+  </si>
+  <si>
+    <t>dailydose/max(minimaldosage;(dailydose/20-7))</t>
   </si>
 </sst>
 </file>
@@ -480,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:F9" si="4">A7/D7</f>
+        <f>A7/D7</f>
         <v>9</v>
       </c>
       <c r="F7">
@@ -875,7 +881,7 @@
         <v>8.615384615384615</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f>A8/D8</f>
         <v>13</v>
       </c>
       <c r="F8">
@@ -899,7 +905,7 @@
         <v>12.307692307692308</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E7:F9" si="4">A9/D9</f>
         <v>13</v>
       </c>
       <c r="F9">
@@ -908,6 +914,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" t="s">
         <v>6</v>
       </c>
@@ -924,6 +933,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
       <c r="F15">
         <f>ROUND(F7/1,0)</f>
         <v>1</v>
@@ -1017,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
@@ -1164,11 +1176,11 @@
         <v>0.29236111111111113</v>
       </c>
       <c r="C4" s="1">
-        <f>F3</f>
+        <f t="shared" ref="C4:C12" si="0">F3</f>
         <v>0.30277777777777776</v>
       </c>
       <c r="D4" s="1">
-        <f>G3</f>
+        <f t="shared" ref="D4:D12" si="1">G3</f>
         <v>0.31319444444444444</v>
       </c>
       <c r="E4" s="1">
@@ -1176,11 +1188,11 @@
         <v>0.33402777777777776</v>
       </c>
       <c r="F4" s="1">
-        <f>TIME(HOUR(C4),MINUTE(C4)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0))&gt;HOUR(E4),60-MINUTE(E4)+MINUTE(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0)),MINUTE(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0))-MINUTE(E4)),0),0)</f>
+        <f t="shared" ref="F4:F15" si="2">TIME(HOUR(C4),MINUTE(C4)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0))&gt;HOUR(E4),60-MINUTE(E4)+MINUTE(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0)),MINUTE(TIME(HOUR(C4),MINUTE(C4)+dose_del_b,0))-MINUTE(E4)),0),0)</f>
         <v>0.34444444444444439</v>
       </c>
       <c r="G4" s="1">
-        <f>TIME(HOUR(D4),MINUTE(D4)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0))&gt;HOUR(F4),60-MINUTE(F4)+MINUTE(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0)),MINUTE(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0))-MINUTE(F4)),0),0)</f>
+        <f t="shared" ref="G4:G15" si="3">TIME(HOUR(D4),MINUTE(D4)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0))&gt;HOUR(F4),60-MINUTE(F4)+MINUTE(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0)),MINUTE(TIME(HOUR(D4),MINUTE(D4)+dose_del_c,0))-MINUTE(F4)),0),0)</f>
         <v>0.35486111111111107</v>
       </c>
       <c r="K4">
@@ -1198,19 +1210,19 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>0.34444444444444439</v>
       </c>
       <c r="D5" s="1">
-        <f>G4</f>
+        <f t="shared" si="1"/>
         <v>0.35486111111111107</v>
       </c>
       <c r="F5" s="1">
-        <f>TIME(HOUR(C5),MINUTE(C5)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C5),MINUTE(C5)+dose_del_b,0))&gt;HOUR(E5),60-MINUTE(E5)+MINUTE(TIME(HOUR(C5),MINUTE(C5)+dose_del_b,0)),MINUTE(TIME(HOUR(C5),MINUTE(C5)+dose_del_b,0))-MINUTE(E5)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.38611111111111107</v>
       </c>
       <c r="G5" s="1">
-        <f>TIME(HOUR(D5),MINUTE(D5)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D5),MINUTE(D5)+dose_del_c,0))&gt;HOUR(F5),60-MINUTE(F5)+MINUTE(TIME(HOUR(D5),MINUTE(D5)+dose_del_c,0)),MINUTE(TIME(HOUR(D5),MINUTE(D5)+dose_del_c,0))-MINUTE(F5)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.39652777777777776</v>
       </c>
     </row>
@@ -1223,11 +1235,11 @@
         <v>0.33402777777777776</v>
       </c>
       <c r="C6" s="1">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>0.38611111111111107</v>
       </c>
       <c r="D6" s="1">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>0.39652777777777776</v>
       </c>
       <c r="E6" s="1">
@@ -1235,11 +1247,11 @@
         <v>0.40694444444444439</v>
       </c>
       <c r="F6" s="1">
-        <f>TIME(HOUR(C6),MINUTE(C6)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C6),MINUTE(C6)+dose_del_b,0))&gt;HOUR(E6),60-MINUTE(E6)+MINUTE(TIME(HOUR(C6),MINUTE(C6)+dose_del_b,0)),MINUTE(TIME(HOUR(C6),MINUTE(C6)+dose_del_b,0))-MINUTE(E6)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.42777777777777776</v>
       </c>
       <c r="G6" s="1">
-        <f>TIME(HOUR(D6),MINUTE(D6)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D6),MINUTE(D6)+dose_del_c,0))&gt;HOUR(F6),60-MINUTE(F6)+MINUTE(TIME(HOUR(D6),MINUTE(D6)+dose_del_c,0)),MINUTE(TIME(HOUR(D6),MINUTE(D6)+dose_del_c,0))-MINUTE(F6)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.43819444444444439</v>
       </c>
     </row>
@@ -1248,15 +1260,15 @@
         <v>21</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B15" si="0">IF(E6&gt;0,E6,E5)</f>
+        <f t="shared" ref="B7:B15" si="4">IF(E6&gt;0,E6,E5)</f>
         <v>0.40694444444444439</v>
       </c>
       <c r="C7" s="1">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>0.42777777777777776</v>
       </c>
       <c r="D7" s="1">
-        <f>G6</f>
+        <f t="shared" si="1"/>
         <v>0.43819444444444439</v>
       </c>
       <c r="E7" s="1">
@@ -1264,11 +1276,11 @@
         <v>0.44861111111111107</v>
       </c>
       <c r="F7" s="1">
-        <f>TIME(HOUR(C7),MINUTE(C7)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C7),MINUTE(C7)+dose_del_b,0))&gt;HOUR(E7),60-MINUTE(E7)+MINUTE(TIME(HOUR(C7),MINUTE(C7)+dose_del_b,0)),MINUTE(TIME(HOUR(C7),MINUTE(C7)+dose_del_b,0))-MINUTE(E7)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.46944444444444439</v>
       </c>
       <c r="G7" s="1">
-        <f>TIME(HOUR(D7),MINUTE(D7)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D7),MINUTE(D7)+dose_del_c,0))&gt;HOUR(F7),60-MINUTE(F7)+MINUTE(TIME(HOUR(D7),MINUTE(D7)+dose_del_c,0)),MINUTE(TIME(HOUR(D7),MINUTE(D7)+dose_del_c,0))-MINUTE(F7)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.47986111111111107</v>
       </c>
     </row>
@@ -1277,24 +1289,24 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44861111111111107</v>
       </c>
       <c r="C8" s="1">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>0.46944444444444439</v>
       </c>
       <c r="D8" s="1">
-        <f>G7</f>
+        <f t="shared" si="1"/>
         <v>0.47986111111111107</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <f>TIME(HOUR(C8),MINUTE(C8)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C8),MINUTE(C8)+dose_del_b,0))&gt;HOUR(E8),60-MINUTE(E8)+MINUTE(TIME(HOUR(C8),MINUTE(C8)+dose_del_b,0)),MINUTE(TIME(HOUR(C8),MINUTE(C8)+dose_del_b,0))-MINUTE(E8)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.51111111111111107</v>
       </c>
       <c r="G8" s="1">
-        <f>TIME(HOUR(D8),MINUTE(D8)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D8),MINUTE(D8)+dose_del_c,0))&gt;HOUR(F8),60-MINUTE(F8)+MINUTE(TIME(HOUR(D8),MINUTE(D8)+dose_del_c,0)),MINUTE(TIME(HOUR(D8),MINUTE(D8)+dose_del_c,0))-MINUTE(F8)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.5215277777777777</v>
       </c>
     </row>
@@ -1303,15 +1315,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.44861111111111107</v>
       </c>
       <c r="C9" s="1">
-        <f>F8</f>
+        <f t="shared" si="0"/>
         <v>0.51111111111111107</v>
       </c>
       <c r="D9" s="1">
-        <f>G8</f>
+        <f t="shared" si="1"/>
         <v>0.5215277777777777</v>
       </c>
       <c r="E9" s="1">
@@ -1319,11 +1331,11 @@
         <v>0.49027777777777776</v>
       </c>
       <c r="F9" s="1">
-        <f>TIME(HOUR(C9),MINUTE(C9)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C9),MINUTE(C9)+dose_del_b,0))&gt;HOUR(E9),60-MINUTE(E9)+MINUTE(TIME(HOUR(C9),MINUTE(C9)+dose_del_b,0)),MINUTE(TIME(HOUR(C9),MINUTE(C9)+dose_del_b,0))-MINUTE(E9)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.5527777777777777</v>
       </c>
       <c r="G9" s="1">
-        <f>TIME(HOUR(D9),MINUTE(D9)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0))&gt;HOUR(F9),60-MINUTE(F9)+MINUTE(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0)),MINUTE(TIME(HOUR(D9),MINUTE(D9)+dose_del_c,0))-MINUTE(F9)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.56319444444444444</v>
       </c>
       <c r="H9" s="2">
@@ -1336,15 +1348,15 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.49027777777777776</v>
       </c>
       <c r="C10" s="1">
-        <f>F9</f>
+        <f t="shared" si="0"/>
         <v>0.5527777777777777</v>
       </c>
       <c r="D10" s="1">
-        <f>G9</f>
+        <f t="shared" si="1"/>
         <v>0.56319444444444444</v>
       </c>
       <c r="E10" s="1">
@@ -1352,11 +1364,11 @@
         <v>0.53194444444444444</v>
       </c>
       <c r="F10" s="1">
-        <f>TIME(HOUR(C10),MINUTE(C10)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C10),MINUTE(C10)+dose_del_b,0))&gt;HOUR(E10),60-MINUTE(E10)+MINUTE(TIME(HOUR(C10),MINUTE(C10)+dose_del_b,0)),MINUTE(TIME(HOUR(C10),MINUTE(C10)+dose_del_b,0))-MINUTE(E10)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.59444444444444444</v>
       </c>
       <c r="G10" s="1">
-        <f>TIME(HOUR(D10),MINUTE(D10)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D10),MINUTE(D10)+dose_del_c,0))&gt;HOUR(F10),60-MINUTE(F10)+MINUTE(TIME(HOUR(D10),MINUTE(D10)+dose_del_c,0)),MINUTE(TIME(HOUR(D10),MINUTE(D10)+dose_del_c,0))-MINUTE(F10)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.60486111111111107</v>
       </c>
     </row>
@@ -1365,24 +1377,24 @@
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.53194444444444444</v>
       </c>
       <c r="C11" s="1">
-        <f>F10</f>
+        <f t="shared" si="0"/>
         <v>0.59444444444444444</v>
       </c>
       <c r="D11" s="1">
-        <f>G10</f>
+        <f t="shared" si="1"/>
         <v>0.60486111111111107</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f>TIME(HOUR(C11),MINUTE(C11)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C11),MINUTE(C11)+dose_del_b,0))&gt;HOUR(E11),60-MINUTE(E11)+MINUTE(TIME(HOUR(C11),MINUTE(C11)+dose_del_b,0)),MINUTE(TIME(HOUR(C11),MINUTE(C11)+dose_del_b,0))-MINUTE(E11)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.63611111111111107</v>
       </c>
       <c r="G11" s="1">
-        <f>TIME(HOUR(D11),MINUTE(D11)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D11),MINUTE(D11)+dose_del_c,0))&gt;HOUR(F11),60-MINUTE(F11)+MINUTE(TIME(HOUR(D11),MINUTE(D11)+dose_del_c,0)),MINUTE(TIME(HOUR(D11),MINUTE(D11)+dose_del_c,0))-MINUTE(F11)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.6465277777777777</v>
       </c>
     </row>
@@ -1391,15 +1403,15 @@
         <v>26</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.53194444444444444</v>
       </c>
       <c r="C12" s="1">
-        <f>F11</f>
+        <f t="shared" si="0"/>
         <v>0.63611111111111107</v>
       </c>
       <c r="D12" s="1">
-        <f>G11</f>
+        <f t="shared" si="1"/>
         <v>0.6465277777777777</v>
       </c>
       <c r="E12" s="1">
@@ -1407,11 +1419,11 @@
         <v>0.57361111111111107</v>
       </c>
       <c r="F12" s="1">
-        <f>TIME(HOUR(C12),MINUTE(C12)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C12),MINUTE(C12)+dose_del_b,0))&gt;HOUR(E12),60-MINUTE(E12)+MINUTE(TIME(HOUR(C12),MINUTE(C12)+dose_del_b,0)),MINUTE(TIME(HOUR(C12),MINUTE(C12)+dose_del_b,0))-MINUTE(E12)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.6777777777777777</v>
       </c>
       <c r="G12" s="1">
-        <f>TIME(HOUR(D12),MINUTE(D12)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D12),MINUTE(D12)+dose_del_c,0))&gt;HOUR(F12),60-MINUTE(F12)+MINUTE(TIME(HOUR(D12),MINUTE(D12)+dose_del_c,0)),MINUTE(TIME(HOUR(D12),MINUTE(D12)+dose_del_c,0))-MINUTE(F12)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.68819444444444444</v>
       </c>
     </row>
@@ -1420,15 +1432,15 @@
         <v>27</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.57361111111111107</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C14" si="1">F12</f>
+        <f t="shared" ref="C13:C14" si="5">F12</f>
         <v>0.6777777777777777</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D14" si="2">G12</f>
+        <f t="shared" ref="D13:D14" si="6">G12</f>
         <v>0.68819444444444444</v>
       </c>
       <c r="E13" s="1">
@@ -1436,11 +1448,11 @@
         <v>0.6152777777777777</v>
       </c>
       <c r="F13" s="1">
-        <f>TIME(HOUR(C13),MINUTE(C13)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C13),MINUTE(C13)+dose_del_b,0))&gt;HOUR(E13),60-MINUTE(E13)+MINUTE(TIME(HOUR(C13),MINUTE(C13)+dose_del_b,0)),MINUTE(TIME(HOUR(C13),MINUTE(C13)+dose_del_b,0))-MINUTE(E13)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.71944444444444444</v>
       </c>
       <c r="G13" s="1">
-        <f>TIME(HOUR(D13),MINUTE(D13)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D13),MINUTE(D13)+dose_del_c,0))&gt;HOUR(F13),60-MINUTE(F13)+MINUTE(TIME(HOUR(D13),MINUTE(D13)+dose_del_c,0)),MINUTE(TIME(HOUR(D13),MINUTE(D13)+dose_del_c,0))-MINUTE(F13)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.72986111111111107</v>
       </c>
     </row>
@@ -1449,24 +1461,24 @@
         <v>28</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6152777777777777</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.71944444444444444</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.72986111111111107</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <f>TIME(HOUR(C14),MINUTE(C14)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C14),MINUTE(C14)+dose_del_b,0))&gt;HOUR(E14),60-MINUTE(E14)+MINUTE(TIME(HOUR(C14),MINUTE(C14)+dose_del_b,0)),MINUTE(TIME(HOUR(C14),MINUTE(C14)+dose_del_b,0))-MINUTE(E14)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.76111111111111107</v>
       </c>
       <c r="G14" s="1">
-        <f>TIME(HOUR(D14),MINUTE(D14)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D14),MINUTE(D14)+dose_del_c,0))&gt;HOUR(F14),60-MINUTE(F14)+MINUTE(TIME(HOUR(D14),MINUTE(D14)+dose_del_c,0)),MINUTE(TIME(HOUR(D14),MINUTE(D14)+dose_del_c,0))-MINUTE(F14)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.7715277777777777</v>
       </c>
     </row>
@@ -1475,7 +1487,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6152777777777777</v>
       </c>
       <c r="C15" s="1">
@@ -1491,11 +1503,11 @@
         <v>0.65694444444444444</v>
       </c>
       <c r="F15" s="1">
-        <f>TIME(HOUR(C15),MINUTE(C15)+dose_del_b+MAX(pump_delay_b-IF(HOUR(TIME(HOUR(C15),MINUTE(C15)+dose_del_b,0))&gt;HOUR(E15),60-MINUTE(E15)+MINUTE(TIME(HOUR(C15),MINUTE(C15)+dose_del_b,0)),MINUTE(TIME(HOUR(C15),MINUTE(C15)+dose_del_b,0))-MINUTE(E15)),0),0)</f>
+        <f t="shared" si="2"/>
         <v>0.8027777777777777</v>
       </c>
       <c r="G15" s="1">
-        <f>TIME(HOUR(D15),MINUTE(D15)+dose_del_c+MAX(pump_delay_c-IF(HOUR(TIME(HOUR(D15),MINUTE(D15)+dose_del_c,0))&gt;HOUR(F15),60-MINUTE(F15)+MINUTE(TIME(HOUR(D15),MINUTE(D15)+dose_del_c,0)),MINUTE(TIME(HOUR(D15),MINUTE(D15)+dose_del_c,0))-MINUTE(F15)),0),0)</f>
+        <f t="shared" si="3"/>
         <v>0.81319444444444444</v>
       </c>
     </row>
